--- a/processados/livros-10_10_2023-22_13_22.xlsx
+++ b/processados/livros-10_10_2023-22_13_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\compassEvaBuscaDeLivros\processados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338399A-8EE1-4CC1-A45E-4B34C0494F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D427E16-1F99-4029-A179-F3E65E2EA896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-48330" yWindow="2940" windowWidth="26715" windowHeight="13965" activeTab="2" xr2:uid="{E3097AE8-8AF0-4FFE-B72F-6AE764DE5F52}"/>
+    <workbookView minimized="1" xWindow="4470" yWindow="1650" windowWidth="21435" windowHeight="12210" activeTab="2" xr2:uid="{E3097AE8-8AF0-4FFE-B72F-6AE764DE5F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
